--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2985946.876800343</v>
+        <v>2983694.797089136</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>124.2781875329272</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>69.11474563697854</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -820,22 +820,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>68.74868616823407</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>225.4676423196889</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>50.10896315666726</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,10 +902,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>78.35381101375825</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>69.46007239278465</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>24.01006515217569</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1117,7 +1117,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>255.2131793033305</v>
+        <v>170.7304930065917</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,16 +1291,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>124.2292170629834</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>241.1325567395864</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893622</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>28.75188085812011</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187852</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,10 +2005,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.0157691544086</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,16 +2245,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>42.14967908986335</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>53.11937003877873</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569541</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D31" t="n">
-        <v>1.043911798777523</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3187,22 +3187,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3241,13 +3241,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>161.5330709997914</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3433,13 +3433,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>75.55208621972916</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>117.4765410832882</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4144,13 +4144,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1274.539111149739</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C2" t="n">
-        <v>905.5765942093278</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="D2" t="n">
-        <v>547.3108956025774</v>
+        <v>953.6440892486869</v>
       </c>
       <c r="E2" t="n">
-        <v>547.3108956025774</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>136.3249908129698</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4346,19 +4346,19 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
         <v>2755.806928794324</v>
@@ -4367,13 +4367,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450753</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2051.278283189673</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1661.138951213861</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="3">
@@ -4383,70 +4383,70 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064582</v>
       </c>
       <c r="I3" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>945.3964936596652</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C4" t="n">
-        <v>776.4603107317583</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D4" t="n">
-        <v>626.3436713194226</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>478.4305777370295</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1857.851430746842</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.46409084602</v>
+        <v>1666.165546573669</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.46409084602</v>
+        <v>1444.398931143195</v>
       </c>
       <c r="U4" t="n">
-        <v>1609.718997593809</v>
+        <v>1155.296064268838</v>
       </c>
       <c r="V4" t="n">
-        <v>1355.034509387922</v>
+        <v>1155.296064268838</v>
       </c>
       <c r="W4" t="n">
-        <v>1355.034509387922</v>
+        <v>865.8788942318776</v>
       </c>
       <c r="X4" t="n">
-        <v>1127.044958489905</v>
+        <v>637.8893433338602</v>
       </c>
       <c r="Y4" t="n">
-        <v>1127.044958489905</v>
+        <v>417.0967641903301</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>1257.755181644084</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>888.7926647036722</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
         <v>523.5814653477182</v>
@@ -4565,7 +4565,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4577,7 +4577,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2786.952333616968</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2434.183678346854</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2434.183678346854</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>2434.183678346854</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601587</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>402.9356658273861</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>233.9994828994791</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>233.9994828994791</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>233.9994828994791</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>233.9994828994791</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1903.041957025689</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1681.275341595215</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1392.172474720858</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V7" t="n">
-        <v>1137.487986514971</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W7" t="n">
-        <v>848.0708164780106</v>
+        <v>812.5736815556431</v>
       </c>
       <c r="X7" t="n">
-        <v>848.0708164780106</v>
+        <v>584.5841306576258</v>
       </c>
       <c r="Y7" t="n">
-        <v>848.0708164780106</v>
+        <v>584.5841306576258</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1418.660964416652</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C8" t="n">
-        <v>1418.660964416652</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D8" t="n">
-        <v>1418.660964416652</v>
+        <v>971.281412372397</v>
       </c>
       <c r="E8" t="n">
-        <v>1032.872711818408</v>
+        <v>585.4931597741527</v>
       </c>
       <c r="F8" t="n">
-        <v>621.8868070288006</v>
+        <v>578.5476590249492</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923658</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653544</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>1808.800296392464</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1418.660964416652</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="9">
@@ -4875,19 +4875,19 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F10" t="n">
         <v>234.2149530574645</v>
@@ -4960,16 +4960,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1801.810490449115</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1801.810490449115</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1547.126002243228</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1257.708832206268</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="X10" t="n">
-        <v>1029.71928130825</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="11">
@@ -5033,7 +5033,7 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5045,13 +5045,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5060,7 +5060,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5242,7 +5242,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
     <row r="14">
@@ -5258,46 +5258,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2148.04349261611</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5413,25 +5413,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L18" t="n">
-        <v>716.6687843969308</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1051.338974243769</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5741,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>231.7628415621006</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5966,40 +5966,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,28 +6008,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6187,10 +6187,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1101.708762187754</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
     <row r="26">
@@ -6206,40 +6206,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6309,16 +6309,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6412,22 +6412,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>801.6918836311989</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>632.7557007032921</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>631.7012443408905</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>983.3403484614387</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6680,40 +6680,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6783,22 +6783,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1284.178074642674</v>
+        <v>1270.536647467212</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>1042.547096569194</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>821.7545174256642</v>
       </c>
     </row>
     <row r="35">
@@ -6923,31 +6923,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7017,25 +7017,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2546.729326731942</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7081,10 +7081,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
@@ -7163,7 +7163,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7418,10 +7418,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7488,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7600,19 +7600,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,16 +7725,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
     </row>
     <row r="14">
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>138.4949402405077</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>44.73700564187206</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23893,10 +23893,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>133.6938862346286</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,16 +24133,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>28.95742156328143</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24370,16 +24370,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>183.5599762991738</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D31" t="n">
-        <v>147.5715612194348</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,22 +25075,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25129,13 +25129,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>124.9899273367996</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25321,13 +25321,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>43.26526345294985</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25840,13 +25840,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>210.9709121168618</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>738630.8190212518</v>
+        <v>738630.8190212519</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>738630.8190212519</v>
+        <v>738630.8190212518</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>738630.8190212519</v>
+        <v>738630.8190212518</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>738630.8190212518</v>
+        <v>738630.8190212516</v>
       </c>
     </row>
     <row r="15">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>697885.504384641</v>
+      </c>
+      <c r="C2" t="n">
+        <v>697885.5043846408</v>
+      </c>
+      <c r="D2" t="n">
         <v>697885.5043846407</v>
       </c>
-      <c r="C2" t="n">
-        <v>697885.5043846407</v>
-      </c>
-      <c r="D2" t="n">
-        <v>697885.5043846408</v>
-      </c>
       <c r="E2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365059</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="G2" t="n">
         <v>686074.6097365058</v>
@@ -26335,25 +26335,25 @@
         <v>686074.6097365058</v>
       </c>
       <c r="J2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="K2" t="n">
+        <v>686074.6097365059</v>
+      </c>
+      <c r="L2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="M2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="N2" t="n">
+        <v>686074.6097365059</v>
+      </c>
+      <c r="O2" t="n">
+        <v>686074.6097365059</v>
+      </c>
+      <c r="P2" t="n">
         <v>686074.6097365058</v>
-      </c>
-      <c r="K2" t="n">
-        <v>686074.6097365055</v>
-      </c>
-      <c r="L2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="M2" t="n">
-        <v>686074.6097365055</v>
-      </c>
-      <c r="N2" t="n">
-        <v>686074.6097365058</v>
-      </c>
-      <c r="O2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="P2" t="n">
-        <v>686074.6097365059</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,40 +26415,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818177</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818176</v>
+        <v>92183.89891818173</v>
       </c>
       <c r="D4" t="n">
         <v>92183.89891818175</v>
       </c>
       <c r="E4" t="n">
-        <v>12996.86414683045</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.86414683048</v>
+        <v>12996.86414683046</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.8641468305</v>
+        <v>12996.86414683042</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.86414683046</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="I4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
+        <v>12996.86414683046</v>
+      </c>
+      <c r="K4" t="n">
         <v>12996.86414683044</v>
       </c>
-      <c r="K4" t="n">
-        <v>12996.86414683049</v>
-      </c>
       <c r="L4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683046</v>
       </c>
       <c r="M4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683043</v>
       </c>
       <c r="N4" t="n">
         <v>12996.86414683044</v>
@@ -26522,46 +26522,46 @@
         <v>-830977.0808225267</v>
       </c>
       <c r="C6" t="n">
+        <v>497767.6649050658</v>
+      </c>
+      <c r="D6" t="n">
         <v>497767.6649050657</v>
       </c>
-      <c r="D6" t="n">
-        <v>497767.6649050658</v>
-      </c>
       <c r="E6" t="n">
-        <v>246542.7539584129</v>
+        <v>246508.0160329774</v>
       </c>
       <c r="F6" t="n">
-        <v>571955.2157657681</v>
+        <v>571920.4778403323</v>
       </c>
       <c r="G6" t="n">
-        <v>571955.2157657682</v>
+        <v>571920.4778403323</v>
       </c>
       <c r="H6" t="n">
-        <v>571955.2157657682</v>
+        <v>571920.4778403328</v>
       </c>
       <c r="I6" t="n">
-        <v>571955.2157657683</v>
+        <v>571920.4778403327</v>
       </c>
       <c r="J6" t="n">
-        <v>354424.0133684907</v>
+        <v>354389.2754430548</v>
       </c>
       <c r="K6" t="n">
-        <v>571955.215765768</v>
+        <v>571920.4778403328</v>
       </c>
       <c r="L6" t="n">
-        <v>571955.2157657682</v>
+        <v>571920.4778403323</v>
       </c>
       <c r="M6" t="n">
-        <v>486900.1878302562</v>
+        <v>486865.4499048205</v>
       </c>
       <c r="N6" t="n">
-        <v>571955.2157657683</v>
+        <v>571920.4778403328</v>
       </c>
       <c r="O6" t="n">
-        <v>571955.2157657682</v>
+        <v>571920.4778403328</v>
       </c>
       <c r="P6" t="n">
-        <v>571955.2157657684</v>
+        <v>571920.4778403325</v>
       </c>
     </row>
   </sheetData>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
@@ -26802,7 +26802,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>257.6521825393346</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>341.8069800164749</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,22 +27540,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>20.18346650181326</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>60.74419588592394</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>332.6248785068133</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,10 +27622,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>249.3984474563767</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>96.56573586624357</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>165.7589601792662</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27837,7 +27837,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>155.7085463501229</v>
+        <v>240.1912326468617</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28011,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>95.3197322131858</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>45.39044159700464</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1.181774678116199e-12</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,22 +31835,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963283</v>
+        <v>422.1299181110993</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31859,10 +31859,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31993,7 +31993,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
         <v>466.7546155663283</v>
@@ -32072,16 +32072,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>402.2342772868842</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>543.0832917018711</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32467,7 +32467,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32546,25 +32546,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32783,31 +32783,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>429.5828357723605</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33029,19 +33029,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>681.5735157229393</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33257,13 +33257,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>188.4731159523455</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33503,7 +33503,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>164.2853229338207</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33515,13 +33515,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33737,7 +33737,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>152.0754244981388</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34150,7 +34150,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34208,7 +34208,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>277.2922978908106</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366847</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,22 +35483,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>261.3487819164541</v>
+        <v>283.5755383312251</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35507,10 +35507,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,7 +35641,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>263.67989750701</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>140.6875824748321</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36194,25 +36194,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36431,31 +36431,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36677,19 +36677,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>550.231803639606</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37151,7 +37151,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>25.73094315394657</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37163,13 +37163,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37385,7 +37385,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>6.39592053417488</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37856,7 +37856,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
